--- a/Travel_Expense_Tracker.xlsx
+++ b/Travel_Expense_Tracker.xlsx
@@ -854,7 +854,7 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="6" t="n">
         <v>46072</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6942</v>
+        <v>6492</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="7" t="n">
         <v>46072</v>
       </c>
       <c r="C14" t="inlineStr">
